--- a/app/private/lease_import_v3.xlsx
+++ b/app/private/lease_import_v3.xlsx
@@ -4182,7 +4182,7 @@
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:GL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="DH5" sqref="DH5"/>
     </sheetView>
   </sheetViews>
